--- a/Assignment_Details.xlsx
+++ b/Assignment_Details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e1f49cefcf4ae0/Documents/GitHub/Apr22-Web-Fundamentals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e1f49cefcf4ae0/Documents/GitHub/Apr22-Web-Fundamentals_Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104835C91E41EE5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B7C392-79C7-408C-96E0-A32D69208A52}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104835C91E41EE5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B883066-C5A6-46AF-8A00-E85F6B889968}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Instructor</t>
   </si>
@@ -80,17 +77,82 @@
 And under it make a box in which Search suggestion will be shown</t>
   </si>
   <si>
-    <t>Create the following UI(use any images)</t>
-  </si>
-  <si>
-    <t>Create this table</t>
+    <t>Assignment Host Link</t>
+  </si>
+  <si>
+    <t>Html structure and tags {para,heading}</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_2/Assignment_1/index.html</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_2/Assignment_2/Structure.html</t>
+  </si>
+  <si>
+    <t>Anchor tag</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_3/Assignment_3/LoginPageWithCSS.html</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_3/Assignment_3/LoginPage.html</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_3/Assignment_4/Date.html</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_3/Assignment_5/Time.html</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_3/Assignment_6/RegistrationForm.html</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_3/Assignment_7/SearchEngine.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create the following UI(use any images)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create this table
+</t>
+  </si>
+  <si>
+    <t>Kabir Sir</t>
+  </si>
+  <si>
+    <t>input filed and button</t>
+  </si>
+  <si>
+    <t>date picker</t>
+  </si>
+  <si>
+    <t>time picker</t>
+  </si>
+  <si>
+    <t>dropdown, textarea,radio button and checkbox</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>merge rows in table</t>
+  </si>
+  <si>
+    <t>table with images</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_4/Assignment_8/AmazonAds_Table.html</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_4/Assignment_9/TableWithMergeCol.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +179,14 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -138,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,37 +231,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -211,16 +316,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>176376</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>412596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4373880</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2095500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4351020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2331720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -250,7 +355,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7802880" y="4695036"/>
+          <a:off x="3649980" y="6081876"/>
           <a:ext cx="4160520" cy="1919124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -272,61 +377,50 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123757</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4000500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2537459</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4040505</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2640330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07A69A5-96CF-4251-8B18-3B7DF7BB682A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFF5EE6-6D56-4F90-9605-73F3A1EEE4DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="7278937"/>
-          <a:ext cx="3436620" cy="2413702"/>
+          <a:off x="4061460" y="8404860"/>
+          <a:ext cx="3438525" cy="2419350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -597,154 +691,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="27.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="27.6640625" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="66.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="27.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="106.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="107.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="6" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="54.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="7" spans="1:6" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="54.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    <row r="8" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="28.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    <row r="9" spans="1:6" ht="198" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="28.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    <row r="10" spans="1:6" ht="212.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="41.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="8">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="192.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="217.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{14C7F8A7-D36D-4D3A-BD75-2230920B745C}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{23BDFE03-4394-4AEB-A606-FEE6E2607C71}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{808C117B-112B-4377-A3A8-C67314AB6769}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{6E6A4CA3-43B6-4FD8-9E3F-F57C8173BD9A}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{26F306D2-A421-4D4B-B496-FF91AC568CAC}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{B7CF1AD4-D627-4678-AC77-8F2F51A33C9C}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{E8AAF49C-1B12-4AE2-A862-0175B5084E4C}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{D1E36940-2181-4E46-BF3C-7995C7C6B647}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{566F3A78-FF8A-4856-A0E3-8FFB2B318D05}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{86258B6D-BEAE-4C86-B623-709EE2DAD377}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Assignment_Details.xlsx
+++ b/Assignment_Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e1f49cefcf4ae0/Documents/GitHub/Apr22-Web-Fundamentals_Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104835C91E41EE5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B883066-C5A6-46AF-8A00-E85F6B889968}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC104835C91E41EE5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4F30E65-9CA0-4CE3-B7AF-F72866DFCB53}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Instructor</t>
   </si>
@@ -146,6 +146,29 @@
   </si>
   <si>
     <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_4/Assignment_9/TableWithMergeCol.html</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a bow with one image and paragraph
+</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design the navbar with linear gradiant as background
+</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_4/Assignment_10/Navbar.html</t>
+  </si>
+  <si>
+    <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_4/Assignment_11/BoxWithImagePara.html</t>
   </si>
 </sst>
 </file>
@@ -208,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,38 +254,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -277,22 +274,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -316,13 +316,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>412596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>4351020</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2331720</xdr:rowOff>
@@ -377,13 +377,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>4040505</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2640330</xdr:rowOff>
@@ -417,6 +417,94 @@
         <a:xfrm>
           <a:off x="4061460" y="8404860"/>
           <a:ext cx="3438525" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4488180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1901002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626DBDC8-1313-42B9-BDE1-FCC39F1980E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="11384280"/>
+          <a:ext cx="4366260" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>390937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3854487</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1693087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88C3AB5-6CC7-42F7-95D9-90B3C99C41EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="13543057"/>
+          <a:ext cx="3503967" cy="1302150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -691,212 +779,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.6640625" defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="66.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="50.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="42.88671875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="27.6640625" style="4"/>
+    <col min="1" max="1" width="27.6640625" style="10"/>
+    <col min="2" max="2" width="14.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="66.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="27.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="106.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="106.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="198" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" ht="198" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="212.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" ht="212.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="170.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>44676</v>
+      </c>
+      <c r="B11" s="10">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="148.19999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>44676</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{14C7F8A7-D36D-4D3A-BD75-2230920B745C}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{23BDFE03-4394-4AEB-A606-FEE6E2607C71}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{808C117B-112B-4377-A3A8-C67314AB6769}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{6E6A4CA3-43B6-4FD8-9E3F-F57C8173BD9A}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{26F306D2-A421-4D4B-B496-FF91AC568CAC}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{B7CF1AD4-D627-4678-AC77-8F2F51A33C9C}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{E8AAF49C-1B12-4AE2-A862-0175B5084E4C}"/>
-    <hyperlink ref="E8" r:id="rId8" xr:uid="{D1E36940-2181-4E46-BF3C-7995C7C6B647}"/>
-    <hyperlink ref="E9" r:id="rId9" xr:uid="{566F3A78-FF8A-4856-A0E3-8FFB2B318D05}"/>
-    <hyperlink ref="E10" r:id="rId10" xr:uid="{86258B6D-BEAE-4C86-B623-709EE2DAD377}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{14C7F8A7-D36D-4D3A-BD75-2230920B745C}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{23BDFE03-4394-4AEB-A606-FEE6E2607C71}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{808C117B-112B-4377-A3A8-C67314AB6769}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{6E6A4CA3-43B6-4FD8-9E3F-F57C8173BD9A}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{26F306D2-A421-4D4B-B496-FF91AC568CAC}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{B7CF1AD4-D627-4678-AC77-8F2F51A33C9C}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{E8AAF49C-1B12-4AE2-A862-0175B5084E4C}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{D1E36940-2181-4E46-BF3C-7995C7C6B647}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{566F3A78-FF8A-4856-A0E3-8FFB2B318D05}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{86258B6D-BEAE-4C86-B623-709EE2DAD377}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{4ED0C640-EBCD-4ED4-BFE6-395A429C4492}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Assignment_Details.xlsx
+++ b/Assignment_Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e1f49cefcf4ae0/Documents/GitHub/Apr22-Web-Fundamentals_Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC104835C91E41EE5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4F30E65-9CA0-4CE3-B7AF-F72866DFCB53}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104835C91E41EE5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216C8521-29FB-4E9C-BAC3-ABF32BFFDB32}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Instructor</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>https://dilshaudayanperuvadathu.github.io/Apr22-Web-Fundamentals_Assignments/April/Week_4/Assignment_11/BoxWithImagePara.html</t>
+  </si>
+  <si>
+    <t>Abhishek Sir</t>
+  </si>
+  <si>
+    <t>Flex Box</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1iaP3v3sI6nc5-VYPDTHDJhddFuh_QfWa?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -513,6 +522,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414342</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4141147</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1321A6D-B804-492A-8417-FDFDBB5A953C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4940622" y="15529561"/>
+          <a:ext cx="3726805" cy="1790699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -779,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6640625" defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -1010,8 +1063,39 @@
       <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>44678</v>
+      </c>
+      <c r="B13" s="10">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="158.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>44679</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1027,9 +1111,11 @@
     <hyperlink ref="F9" r:id="rId9" xr:uid="{566F3A78-FF8A-4856-A0E3-8FFB2B318D05}"/>
     <hyperlink ref="F10" r:id="rId10" xr:uid="{86258B6D-BEAE-4C86-B623-709EE2DAD377}"/>
     <hyperlink ref="F11" r:id="rId11" xr:uid="{4ED0C640-EBCD-4ED4-BFE6-395A429C4492}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{90CEE922-E643-4712-BA30-2EB7F9E20897}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{2DDD6D5C-A47F-4CD7-A660-38A07E12F1D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>